--- a/Time/Time_202012.xlsx
+++ b/Time/Time_202012.xlsx
@@ -521,19 +521,16 @@
         <v>1607131792303</v>
       </c>
       <c r="D6">
-        <v>1607148905579</v>
-      </c>
-      <c r="E6">
-        <v>0.3958333333333333</v>
+        <v>1607159136589</v>
       </c>
       <c r="F6" t="str">
-        <v>14:15:05</v>
+        <v>17:05:36</v>
       </c>
       <c r="G6">
-        <v>4.753611111111111</v>
+        <v>7.595555555555555</v>
       </c>
       <c r="H6">
-        <v>-4.246388888888889</v>
+        <v>-1.4044444444444446</v>
       </c>
     </row>
   </sheetData>

--- a/Time/Time_202012.xlsx
+++ b/Time/Time_202012.xlsx
@@ -1,24 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevTools\Time\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8115"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>星期X</t>
+  </si>
+  <si>
+    <t>起始时间</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>起始时间（格式化）</t>
+  </si>
+  <si>
+    <t>结束时间（格式化）</t>
+  </si>
+  <si>
+    <t>每日时长</t>
+  </si>
+  <si>
+    <t>余额</t>
+  </si>
+  <si>
+    <t>20201201</t>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>19:49:35</t>
+  </si>
+  <si>
+    <t>20201202</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>20201203</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>20201204</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>19:52:59</t>
+  </si>
+  <si>
+    <t>20201205</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>21:16:51</t>
+  </si>
+  <si>
+    <t>20201206</t>
+  </si>
+  <si>
+    <t>星期日</t>
+  </si>
+  <si>
+    <t>20201207</t>
+  </si>
+  <si>
+    <t>星期一</t>
+  </si>
+  <si>
+    <t>09:30:32</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,10 +143,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,44 +479,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>日期</v>
-      </c>
-      <c r="B1" t="str">
-        <v>星期X</v>
-      </c>
-      <c r="C1" t="str">
-        <v>起始时间</v>
-      </c>
-      <c r="D1" t="str">
-        <v>结束时间</v>
-      </c>
-      <c r="E1" t="str">
-        <v>起始时间（格式化）</v>
-      </c>
-      <c r="F1" t="str">
-        <v>结束时间（格式化）</v>
-      </c>
-      <c r="G1" t="str">
-        <v>每日时长</v>
-      </c>
-      <c r="H1" t="str">
-        <v>余额</v>
+    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>20201201</v>
-      </c>
-      <c r="B2" t="str">
-        <v>星期二</v>
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1606823375659</v>
@@ -419,25 +527,25 @@
       <c r="D2">
         <v>1606823375659</v>
       </c>
-      <c r="E2" t="str">
-        <v>19:49:35</v>
-      </c>
-      <c r="F2" t="str">
-        <v>19:49:35</v>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>-9</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>20201202</v>
-      </c>
-      <c r="B3" t="str">
-        <v>星期三</v>
+    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
       </c>
       <c r="C3">
         <v>1606909775659</v>
@@ -445,25 +553,25 @@
       <c r="D3">
         <v>1606909775659</v>
       </c>
-      <c r="E3" t="str">
-        <v>19:49:35</v>
-      </c>
-      <c r="F3" t="str">
-        <v>19:49:35</v>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>-9</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>20201203</v>
-      </c>
-      <c r="B4" t="str">
-        <v>星期四</v>
+    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
       <c r="C4">
         <v>1606996175659</v>
@@ -471,25 +579,25 @@
       <c r="D4">
         <v>1606996175659</v>
       </c>
-      <c r="E4" t="str">
-        <v>19:49:35</v>
-      </c>
-      <c r="F4" t="str">
-        <v>19:49:35</v>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>-9</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>20201204</v>
-      </c>
-      <c r="B5" t="str">
-        <v>星期五</v>
+    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
       <c r="C5">
         <v>1607045392303</v>
@@ -498,10 +606,10 @@
         <v>1607082779222</v>
       </c>
       <c r="E5">
-        <v>0.3958333333333333</v>
-      </c>
-      <c r="F5" t="str">
-        <v>19:52:59</v>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
       </c>
       <c r="G5">
         <v>10.385277777777777</v>
@@ -510,32 +618,90 @@
         <v>1.3852777777777767</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>20201205</v>
-      </c>
-      <c r="B6" t="str">
-        <v>星期六</v>
+    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
       </c>
       <c r="C6">
         <v>1607131792303</v>
       </c>
       <c r="D6">
-        <v>1607159136589</v>
-      </c>
-      <c r="F6" t="str">
-        <v>17:05:36</v>
+        <v>1607174211581</v>
+      </c>
+      <c r="E6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>7.595555555555555</v>
+        <v>11.783055555555556</v>
       </c>
       <c r="H6">
-        <v>-1.4044444444444446</v>
+        <v>2.7830555555555563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>1607260611581</v>
+      </c>
+      <c r="D7">
+        <v>1607260611581</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>1607304632182</v>
+      </c>
+      <c r="D8">
+        <v>1607304632182</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>-9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H6"/>
+    <ignoredError sqref="A1:H1 A5:H8 A2:G2 A3:G3 A4:G4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Time/Time_202012.xlsx
+++ b/Time/Time_202012.xlsx
@@ -1,121 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevTools\Time\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8115"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>星期X</t>
-  </si>
-  <si>
-    <t>起始时间</t>
-  </si>
-  <si>
-    <t>结束时间</t>
-  </si>
-  <si>
-    <t>起始时间（格式化）</t>
-  </si>
-  <si>
-    <t>结束时间（格式化）</t>
-  </si>
-  <si>
-    <t>每日时长</t>
-  </si>
-  <si>
-    <t>余额</t>
-  </si>
-  <si>
-    <t>20201201</t>
-  </si>
-  <si>
-    <t>星期二</t>
-  </si>
-  <si>
-    <t>19:49:35</t>
-  </si>
-  <si>
-    <t>20201202</t>
-  </si>
-  <si>
-    <t>星期三</t>
-  </si>
-  <si>
-    <t>20201203</t>
-  </si>
-  <si>
-    <t>星期四</t>
-  </si>
-  <si>
-    <t>20201204</t>
-  </si>
-  <si>
-    <t>星期五</t>
-  </si>
-  <si>
-    <t>19:52:59</t>
-  </si>
-  <si>
-    <t>20201205</t>
-  </si>
-  <si>
-    <t>星期六</t>
-  </si>
-  <si>
-    <t>21:16:51</t>
-  </si>
-  <si>
-    <t>20201206</t>
-  </si>
-  <si>
-    <t>星期日</t>
-  </si>
-  <si>
-    <t>20201207</t>
-  </si>
-  <si>
-    <t>星期一</t>
-  </si>
-  <si>
-    <t>09:30:32</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -143,18 +46,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -479,47 +374,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>日期</v>
+      </c>
+      <c r="B1" t="str">
+        <v>星期X</v>
+      </c>
+      <c r="C1" t="str">
+        <v>起始时间</v>
+      </c>
+      <c r="D1" t="str">
+        <v>结束时间</v>
+      </c>
+      <c r="E1" t="str">
+        <v>起始时间（格式化）</v>
+      </c>
+      <c r="F1" t="str">
+        <v>结束时间（格式化）</v>
+      </c>
+      <c r="G1" t="str">
+        <v>每日时长</v>
+      </c>
+      <c r="H1" t="str">
+        <v>余额</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>20201201</v>
+      </c>
+      <c r="B2" t="str">
+        <v>星期二</v>
       </c>
       <c r="C2">
         <v>1606823375659</v>
@@ -527,11 +419,11 @@
       <c r="D2">
         <v>1606823375659</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
+      <c r="E2" t="str">
+        <v>19:49:35</v>
+      </c>
+      <c r="F2" t="str">
+        <v>19:49:35</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -540,12 +432,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>20201202</v>
+      </c>
+      <c r="B3" t="str">
+        <v>星期三</v>
       </c>
       <c r="C3">
         <v>1606909775659</v>
@@ -553,11 +445,11 @@
       <c r="D3">
         <v>1606909775659</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
+      <c r="E3" t="str">
+        <v>19:49:35</v>
+      </c>
+      <c r="F3" t="str">
+        <v>19:49:35</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -566,12 +458,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>20201203</v>
+      </c>
+      <c r="B4" t="str">
+        <v>星期四</v>
       </c>
       <c r="C4">
         <v>1606996175659</v>
@@ -579,11 +471,11 @@
       <c r="D4">
         <v>1606996175659</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
+      <c r="E4" t="str">
+        <v>19:49:35</v>
+      </c>
+      <c r="F4" t="str">
+        <v>19:49:35</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -592,12 +484,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>20201204</v>
+      </c>
+      <c r="B5" t="str">
+        <v>星期五</v>
       </c>
       <c r="C5">
         <v>1607045392303</v>
@@ -606,10 +498,10 @@
         <v>1607082779222</v>
       </c>
       <c r="E5">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="F5" t="str">
+        <v>19:52:59</v>
       </c>
       <c r="G5">
         <v>10.385277777777777</v>
@@ -618,12 +510,12 @@
         <v>1.3852777777777767</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>20201205</v>
+      </c>
+      <c r="B6" t="str">
+        <v>星期六</v>
       </c>
       <c r="C6">
         <v>1607131792303</v>
@@ -632,10 +524,10 @@
         <v>1607174211581</v>
       </c>
       <c r="E6">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="F6" t="str">
+        <v>21:16:51</v>
       </c>
       <c r="G6">
         <v>11.783055555555556</v>
@@ -644,12 +536,12 @@
         <v>2.7830555555555563</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>20201206</v>
+      </c>
+      <c r="B7" t="str">
+        <v>星期日</v>
       </c>
       <c r="C7">
         <v>1607260611581</v>
@@ -657,11 +549,11 @@
       <c r="D7">
         <v>1607260611581</v>
       </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
+      <c r="E7" t="str">
+        <v>21:16:51</v>
+      </c>
+      <c r="F7" t="str">
+        <v>21:16:51</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -670,38 +562,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>20201207</v>
+      </c>
+      <c r="B8" t="str">
+        <v>星期一</v>
       </c>
       <c r="C8">
         <v>1607304632182</v>
       </c>
       <c r="D8">
-        <v>1607304632182</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
+        <v>1607335596059</v>
+      </c>
+      <c r="E8" t="str">
+        <v>09:30:32</v>
+      </c>
+      <c r="F8" t="str">
+        <v>18:06:36</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>8.601111111111111</v>
       </c>
       <c r="H8">
-        <v>-9</v>
+        <v>-0.39888888888888907</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>20201208</v>
+      </c>
+      <c r="B9" t="str">
+        <v>星期二</v>
+      </c>
+      <c r="C9">
+        <v>1607391144759</v>
+      </c>
+      <c r="D9">
+        <v>1607423916014</v>
+      </c>
+      <c r="E9" t="str">
+        <v>09:32:24</v>
+      </c>
+      <c r="F9" t="str">
+        <v>18:38:36</v>
+      </c>
+      <c r="G9">
+        <v>9.103055555555555</v>
+      </c>
+      <c r="H9">
+        <v>0.10305555555555479</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>20201209</v>
+      </c>
+      <c r="B10" t="str">
+        <v>星期三</v>
+      </c>
+      <c r="C10">
+        <v>1607477382914</v>
+      </c>
+      <c r="D10">
+        <v>1607511638740</v>
+      </c>
+      <c r="E10" t="str">
+        <v>09:29:42</v>
+      </c>
+      <c r="F10" t="str">
+        <v>19:00:38</v>
+      </c>
+      <c r="G10">
+        <v>9.515555555555556</v>
+      </c>
+      <c r="H10">
+        <v>0.5155555555555562</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>20201210</v>
+      </c>
+      <c r="B11" t="str">
+        <v>星期四</v>
+      </c>
+      <c r="C11">
+        <v>1607562170876</v>
+      </c>
+      <c r="D11">
+        <v>1607565808515</v>
+      </c>
+      <c r="E11" t="str">
+        <v>09:02:50</v>
+      </c>
+      <c r="F11" t="str">
+        <v>10:03:28</v>
+      </c>
+      <c r="G11">
+        <v>1.0105555555555557</v>
+      </c>
+      <c r="H11">
+        <v>-7.989444444444445</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:H1 A5:H8 A2:G2 A3:G3 A4:G4" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Time/Time_202012.xlsx
+++ b/Time/Time_202012.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -403,7 +403,10 @@
         <v>每日时长</v>
       </c>
       <c r="H1" t="str">
-        <v>余额</v>
+        <v>单日余额（单位：时）</v>
+      </c>
+      <c r="I1" t="str">
+        <v>月度小计（单位：时）</v>
       </c>
     </row>
     <row r="2">
@@ -431,6 +434,9 @@
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -457,6 +463,9 @@
       <c r="H3">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -483,6 +492,9 @@
       <c r="H4">
         <v>0</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -509,6 +521,9 @@
       <c r="H5">
         <v>1.3852777777777767</v>
       </c>
+      <c r="I5">
+        <v>1.3852777777777767</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -535,6 +550,9 @@
       <c r="H6">
         <v>2.7830555555555563</v>
       </c>
+      <c r="I6">
+        <v>4.168333333333333</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -561,6 +579,9 @@
       <c r="H7">
         <v>0</v>
       </c>
+      <c r="I7">
+        <v>4.168333333333333</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -587,6 +608,9 @@
       <c r="H8">
         <v>-0.39888888888888907</v>
       </c>
+      <c r="I8">
+        <v>3.769444444444444</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -613,6 +637,9 @@
       <c r="H9">
         <v>0.10305555555555479</v>
       </c>
+      <c r="I9">
+        <v>3.8724999999999987</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -639,6 +666,9 @@
       <c r="H10">
         <v>0.5155555555555562</v>
       </c>
+      <c r="I10">
+        <v>4.388055555555555</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -651,24 +681,346 @@
         <v>1607562170876</v>
       </c>
       <c r="D11">
-        <v>1607565808515</v>
+        <v>1607598430079</v>
       </c>
       <c r="E11" t="str">
         <v>09:02:50</v>
       </c>
       <c r="F11" t="str">
-        <v>10:03:28</v>
+        <v>19:07:10</v>
       </c>
       <c r="G11">
-        <v>1.0105555555555557</v>
+        <v>10.071944444444444</v>
       </c>
       <c r="H11">
-        <v>-7.989444444444445</v>
+        <v>1.0719444444444441</v>
+      </c>
+      <c r="I11">
+        <v>5.459999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>20201211</v>
+      </c>
+      <c r="B12" t="str">
+        <v>星期五</v>
+      </c>
+      <c r="C12">
+        <v>1607649826346</v>
+      </c>
+      <c r="D12">
+        <v>1607684713626</v>
+      </c>
+      <c r="E12" t="str">
+        <v>09:23:46</v>
+      </c>
+      <c r="F12" t="str">
+        <v>19:05:13</v>
+      </c>
+      <c r="G12">
+        <v>9.690833333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.6908333333333339</v>
+      </c>
+      <c r="I12">
+        <v>6.150833333333333</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>20201212</v>
+      </c>
+      <c r="B13" t="str">
+        <v>星期六</v>
+      </c>
+      <c r="C13">
+        <v>1607771113626</v>
+      </c>
+      <c r="D13">
+        <v>1607771113626</v>
+      </c>
+      <c r="E13" t="str">
+        <v>19:05:13</v>
+      </c>
+      <c r="F13" t="str">
+        <v>19:05:13</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>6.150833333333333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>20201213</v>
+      </c>
+      <c r="B14" t="str">
+        <v>星期日</v>
+      </c>
+      <c r="C14">
+        <v>1607857513626</v>
+      </c>
+      <c r="D14">
+        <v>1607857513626</v>
+      </c>
+      <c r="E14" t="str">
+        <v>19:05:13</v>
+      </c>
+      <c r="F14" t="str">
+        <v>19:05:13</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>6.150833333333333</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>20201214</v>
+      </c>
+      <c r="B15" t="str">
+        <v>星期一</v>
+      </c>
+      <c r="C15">
+        <v>1607908575559</v>
+      </c>
+      <c r="D15">
+        <v>1607941358109</v>
+      </c>
+      <c r="E15" t="str">
+        <v>09:16:15</v>
+      </c>
+      <c r="F15" t="str">
+        <v>18:22:38</v>
+      </c>
+      <c r="G15">
+        <v>9.106388888888889</v>
+      </c>
+      <c r="H15">
+        <v>0.10638888888888864</v>
+      </c>
+      <c r="I15">
+        <v>6.257222222222222</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>20201215</v>
+      </c>
+      <c r="B16" t="str">
+        <v>星期二</v>
+      </c>
+      <c r="C16">
+        <v>1607994439822</v>
+      </c>
+      <c r="D16">
+        <v>1608027261326</v>
+      </c>
+      <c r="E16" t="str">
+        <v>09:07:19</v>
+      </c>
+      <c r="F16" t="str">
+        <v>18:14:21</v>
+      </c>
+      <c r="G16">
+        <v>9.117222222222223</v>
+      </c>
+      <c r="H16">
+        <v>0.11722222222222278</v>
+      </c>
+      <c r="I16">
+        <v>6.374444444444444</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>20201216</v>
+      </c>
+      <c r="B17" t="str">
+        <v>星期三</v>
+      </c>
+      <c r="C17">
+        <v>1608080799328</v>
+      </c>
+      <c r="D17">
+        <v>1608114420561</v>
+      </c>
+      <c r="E17" t="str">
+        <v>09:06:39</v>
+      </c>
+      <c r="F17" t="str">
+        <v>18:27:00</v>
+      </c>
+      <c r="G17">
+        <v>9.339166666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.3391666666666673</v>
+      </c>
+      <c r="I17">
+        <v>6.713611111111112</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>20201217</v>
+      </c>
+      <c r="B18" t="str">
+        <v>星期四</v>
+      </c>
+      <c r="C18">
+        <v>1608167303682</v>
+      </c>
+      <c r="D18">
+        <v>1608200038953</v>
+      </c>
+      <c r="E18" t="str">
+        <v>09:08:23</v>
+      </c>
+      <c r="F18" t="str">
+        <v>18:13:58</v>
+      </c>
+      <c r="G18">
+        <v>9.093055555555557</v>
+      </c>
+      <c r="H18">
+        <v>0.09305555555555678</v>
+      </c>
+      <c r="I18">
+        <v>6.806666666666668</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>20201218</v>
+      </c>
+      <c r="B19" t="str">
+        <v>星期五</v>
+      </c>
+      <c r="C19">
+        <v>1608254203051</v>
+      </c>
+      <c r="D19">
+        <v>1608288087575</v>
+      </c>
+      <c r="E19" t="str">
+        <v>09:16:43</v>
+      </c>
+      <c r="F19" t="str">
+        <v>18:41:27</v>
+      </c>
+      <c r="G19">
+        <v>9.4125</v>
+      </c>
+      <c r="H19">
+        <v>0.41249999999999964</v>
+      </c>
+      <c r="I19">
+        <v>7.219166666666668</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>20201219</v>
+      </c>
+      <c r="B20" t="str">
+        <v>星期六</v>
+      </c>
+      <c r="C20">
+        <v>1608340129256</v>
+      </c>
+      <c r="D20">
+        <v>1608366173367</v>
+      </c>
+      <c r="E20" t="str">
+        <v>09:08:49</v>
+      </c>
+      <c r="F20" t="str">
+        <v>16:22:53</v>
+      </c>
+      <c r="G20">
+        <v>7.234444444444445</v>
+      </c>
+      <c r="H20">
+        <v>-1.7655555555555553</v>
+      </c>
+      <c r="I20">
+        <v>5.453611111111113</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>20201220</v>
+      </c>
+      <c r="B21" t="str">
+        <v>星期日</v>
+      </c>
+      <c r="C21">
+        <v>1608452573367</v>
+      </c>
+      <c r="D21">
+        <v>1608452573367</v>
+      </c>
+      <c r="E21" t="str">
+        <v>16:22:53</v>
+      </c>
+      <c r="F21" t="str">
+        <v>16:22:53</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>5.453611111111113</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>20201221</v>
+      </c>
+      <c r="B22" t="str">
+        <v>星期一</v>
+      </c>
+      <c r="C22">
+        <v>1608512961954</v>
+      </c>
+      <c r="D22">
+        <v>1608512961954</v>
+      </c>
+      <c r="E22" t="str">
+        <v>09:09:21</v>
+      </c>
+      <c r="F22" t="str">
+        <v>09:09:21</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>-9</v>
+      </c>
+      <c r="I22">
+        <v>-3.5463888888888864</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I22"/>
   </ignoredErrors>
 </worksheet>
 </file>